--- a/data/scenarios/base/input/model_data.xlsx
+++ b/data/scenarios/base/input/model_data.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilsumin/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4A47F-EC96-114F-87FE-BF45EFC8C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
     <sheet name="edges" sheetId="2" r:id="rId2"/>
     <sheet name="icebreakers" sheetId="3" r:id="rId3"/>
     <sheet name="vessels" sheetId="4" r:id="rId4"/>
+    <sheet name="speed_decrease" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="158">
   <si>
     <t>point_id</t>
   </si>
@@ -199,9 +211,15 @@
     <t>start_point_name</t>
   </si>
   <si>
+    <t>date_start</t>
+  </si>
+  <si>
     <t>50 лет Победы</t>
   </si>
   <si>
+    <t>Пролив Лонга</t>
+  </si>
+  <si>
     <t>Ямал</t>
   </si>
   <si>
@@ -211,42 +229,66 @@
     <t>Вайгач</t>
   </si>
   <si>
-    <t>Arc 9</t>
-  </si>
-  <si>
-    <t>Пролив Лонга</t>
-  </si>
-  <si>
     <t>end_point_name</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>date_start</t>
-  </si>
-  <si>
     <t>ДЮК II</t>
   </si>
   <si>
+    <t>Arc 5</t>
+  </si>
+  <si>
+    <t>вторник, 1 марта 2022 г.</t>
+  </si>
+  <si>
     <t>САРМАТ</t>
   </si>
   <si>
+    <t>Arc 4</t>
+  </si>
+  <si>
+    <t>среда, 2 марта 2022 г.</t>
+  </si>
+  <si>
     <t>EDUARD TOLL</t>
   </si>
   <si>
+    <t>Arc 7</t>
+  </si>
+  <si>
+    <t>пятница, 4 марта 2022 г.</t>
+  </si>
+  <si>
     <t>GEORGIY USHAKOV</t>
   </si>
   <si>
+    <t>понедельник, 7 марта 2022 г.</t>
+  </si>
+  <si>
     <t>RUDOLF SAMOYLOVICH</t>
   </si>
   <si>
+    <t>вторник, 8 марта 2022 г.</t>
+  </si>
+  <si>
     <t>VLADIMIR VORONIN</t>
   </si>
   <si>
+    <t>суббота, 12 марта 2022 г.</t>
+  </si>
+  <si>
     <t>NIKOLAY YEVGENOV</t>
   </si>
   <si>
+    <t>Терминал Утренний</t>
+  </si>
+  <si>
+    <t>воскресенье, 13 марта 2022 г.</t>
+  </si>
+  <si>
     <t>CHRISTOPHE DE MARGERIE</t>
   </si>
   <si>
@@ -256,36 +298,60 @@
     <t>АРКТИКА-2</t>
   </si>
   <si>
+    <t>вторник, 15 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ИНЖЕНЕР ВЕШНЯКОВ</t>
   </si>
   <si>
+    <t>среда, 9 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ТАМБЕЙ</t>
   </si>
   <si>
+    <t>среда, 16 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ШТУРМАН АЛЬБАНОВ</t>
   </si>
   <si>
+    <t>суббота, 26 марта 2022 г.</t>
+  </si>
+  <si>
     <t>НИКИФОР БЕГИЧЕВ</t>
   </si>
   <si>
+    <t>четверг, 10 марта 2022 г.</t>
+  </si>
+  <si>
     <t>НОРИЛЬСКИЙ НИКЕЛЬ</t>
   </si>
   <si>
     <t>АЙС ИГЛ</t>
   </si>
   <si>
+    <t>четверг, 24 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ШТУРМАН КОШЕЛЕВ</t>
   </si>
   <si>
     <t>ШТУРМАН ЩЕРБИНИН</t>
   </si>
   <si>
+    <t>суббота, 19 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ШТУРМАН СКУРАТОВ</t>
   </si>
   <si>
     <t>ИОГАНН МАХМАСТАЛЬ</t>
   </si>
   <si>
+    <t>четверг, 17 марта 2022 г.</t>
+  </si>
+  <si>
     <t>BORIS SOKOLOV</t>
   </si>
   <si>
@@ -295,54 +361,105 @@
     <t>БАРЕНЦ</t>
   </si>
   <si>
+    <t>Восточно-Сибирское 1</t>
+  </si>
+  <si>
+    <t>воскресенье, 20 марта 2022 г.</t>
+  </si>
+  <si>
     <t>ПОЛАР КИНГ</t>
   </si>
   <si>
+    <t>Восточно-Сибирское 3</t>
+  </si>
+  <si>
     <t>МЫС ДЕЖНЕВА</t>
   </si>
   <si>
+    <t>пятница, 1 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>СЕВМОРПУТЬ</t>
   </si>
   <si>
+    <t>пятница, 8 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>ГРИГОРИЙ ШЕЛИХОВ</t>
   </si>
   <si>
+    <t>воскресенье, 10 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>УРАРТУ</t>
   </si>
   <si>
+    <t>четверг, 7 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>ФЕСКО ПАРИС</t>
   </si>
   <si>
+    <t>пятница, 15 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>ПРОГРЕСС</t>
   </si>
   <si>
+    <t>Терминал УТренний</t>
+  </si>
+  <si>
+    <t>суббота, 16 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>МИХАИЛ БРИТНЕВ</t>
   </si>
   <si>
     <t>САБЕТТА</t>
   </si>
   <si>
+    <t>Победа Месторождение</t>
+  </si>
+  <si>
     <t>ГЕОРГИЙ УШАКОВ</t>
   </si>
   <si>
+    <t>среда, 6 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>СЕВЕРНЫЙ ПРОЕКТ</t>
   </si>
   <si>
+    <t>среда, 20 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>НИКОЛАЙ ЧУДОТВОРЕЦ</t>
   </si>
   <si>
+    <t>суббота, 23 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>БЕРИНГ</t>
   </si>
   <si>
+    <t>пятница, 22 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>ТОЛБУХИН</t>
   </si>
   <si>
     <t>ЯМАЛ КРЕЧЕТ</t>
   </si>
   <si>
+    <t>понедельник, 25 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>CLEAN VISION</t>
   </si>
   <si>
+    <t>среда, 27 апреля 2022 г.</t>
+  </si>
+  <si>
     <t>YAMAL SPIRIT</t>
   </si>
   <si>
@@ -352,150 +469,85 @@
     <t>ТАЙБОЛА</t>
   </si>
   <si>
-    <t>Arc 5</t>
-  </si>
-  <si>
-    <t>Arc 4</t>
-  </si>
-  <si>
-    <t>Arc 7</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Терминал Утренний</t>
-  </si>
-  <si>
-    <t>Восточно-Сибирское 1</t>
-  </si>
-  <si>
-    <t>Восточно-Сибирское 3</t>
-  </si>
-  <si>
-    <t>Терминал УТренний</t>
-  </si>
-  <si>
-    <t>Победа Месторождение</t>
-  </si>
-  <si>
-    <t>вторник, 1 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 2 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>пятница, 4 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>понедельник, 7 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>вторник, 8 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>суббота, 12 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>воскресенье, 13 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>вторник, 15 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 9 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 16 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>суббота, 26 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>четверг, 10 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>четверг, 24 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>суббота, 19 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>четверг, 17 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>воскресенье, 20 марта 2022 г.</t>
-  </si>
-  <si>
-    <t>пятница, 1 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>пятница, 8 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>воскресенье, 10 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>четверг, 7 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>пятница, 15 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>суббота, 16 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 6 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 20 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>суббота, 23 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>пятница, 22 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>понедельник, 25 апреля 2022 г.</t>
-  </si>
-  <si>
-    <t>среда, 27 апреля 2022 г.</t>
-  </si>
-  <si>
     <t>суббота, 30 апреля 2022 г.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>integer_velocity_from</t>
+  </si>
+  <si>
+    <t>integer_velocity_to</t>
+  </si>
+  <si>
+    <t>is_icebreaker_assistance</t>
+  </si>
+  <si>
+    <t>is_possible</t>
+  </si>
+  <si>
+    <t>speed_decrease_pct</t>
+  </si>
+  <si>
+    <t>base_speed</t>
+  </si>
+  <si>
+    <t>Arc 6</t>
+  </si>
+  <si>
+    <t>Arc 9_1</t>
+  </si>
+  <si>
+    <t>Arc 9_2</t>
+  </si>
+  <si>
+    <t>integer_velocity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -522,28 +574,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{14E52EBB-9526-7C45-B693-7722AFF1B294}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -551,44 +615,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -615,14 +679,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -649,9 +731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -660,178 +760,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,12 +943,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -859,26 +957,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="C3">
-        <v>86.15000000000001</v>
+        <v>86.15</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69.90000000000001</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C4">
         <v>44.6</v>
@@ -887,12 +985,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69.15000000000001</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="C5">
         <v>57.68</v>
@@ -901,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -915,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -929,12 +1027,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74.59999999999999</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C8">
         <v>63.9</v>
@@ -943,26 +1041,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C9">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C10">
         <v>107.7</v>
@@ -971,12 +1069,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C11">
         <v>116.7</v>
@@ -985,12 +1083,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C12">
         <v>72.7</v>
@@ -999,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1013,7 +1111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1027,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1041,21 +1139,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72.34999999999999</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="C16">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1069,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1083,12 +1181,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>71.73999999999999</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="C19">
         <v>184.7</v>
@@ -1097,7 +1195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1111,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1125,7 +1223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1139,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1153,12 +1251,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C24">
         <v>139</v>
@@ -1167,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1175,13 +1273,13 @@
         <v>74.3</v>
       </c>
       <c r="C25">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1195,7 +1293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1203,18 +1301,18 @@
         <v>71.3</v>
       </c>
       <c r="C27">
-        <v>72.15000000000001</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>69.09999999999999</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C28">
         <v>169.4</v>
@@ -1223,12 +1321,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>69.90000000000001</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C29">
         <v>179</v>
@@ -1237,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1251,7 +1349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1259,18 +1357,18 @@
         <v>64.95</v>
       </c>
       <c r="C31">
-        <v>40.05</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C32">
         <v>152.6</v>
@@ -1279,7 +1377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1293,7 +1391,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1307,7 +1405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1321,21 +1419,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>72.40000000000001</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C36">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1349,7 +1447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1357,13 +1455,13 @@
         <v>76.5</v>
       </c>
       <c r="C38">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1377,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1391,7 +1489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1405,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1419,7 +1517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1433,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1441,13 +1539,13 @@
         <v>76.7</v>
       </c>
       <c r="C44">
-        <v>140.8</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1461,7 +1559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1475,12 +1573,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>65.90000000000001</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C47">
         <v>190.65</v>
@@ -1489,7 +1587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1504,19 +1602,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1530,7 +1629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>44</v>
       </c>
@@ -1538,13 +1637,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>270.0166416</v>
+        <v>270.01664160000001</v>
       </c>
       <c r="D2">
-        <v>21.1940779017341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>21.194077901734101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1552,13 +1651,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>277.1898363</v>
+        <v>277.18983630000002</v>
       </c>
       <c r="D3">
         <v>12.740096483871</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1566,13 +1665,13 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>58.39035132</v>
+        <v>58.390351320000001</v>
       </c>
       <c r="D4">
         <v>13.1793816666667</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1580,13 +1679,13 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>238.8589885</v>
+        <v>238.85898850000001</v>
       </c>
       <c r="D5">
-        <v>16.6546449496644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16.654644949664402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1594,13 +1693,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>86.93004916</v>
+        <v>86.930049159999996</v>
       </c>
       <c r="D6">
         <v>18.6924039047619</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21</v>
       </c>
@@ -1608,13 +1707,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>655.3557374</v>
+        <v>655.35573739999995</v>
       </c>
       <c r="D7">
-        <v>21.7867715982906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>21.786771598290599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1622,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>410.5701116</v>
+        <v>410.57011160000002</v>
       </c>
       <c r="D8">
-        <v>21.904749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45</v>
       </c>
@@ -1636,13 +1735,13 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>119.5634492</v>
+        <v>119.56344919999999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1653,10 +1752,10 @@
         <v>206.8821279</v>
       </c>
       <c r="D10">
-        <v>18.0111305708661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>18.011130570866101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1670,7 +1769,7 @@
         <v>19.3175636229508</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1678,13 +1777,13 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>178.645412</v>
+        <v>178.64541199999999</v>
       </c>
       <c r="D12">
-        <v>14.392873627451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14.392873627450999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>28</v>
       </c>
@@ -1698,7 +1797,7 @@
         <v>12.4613358465347</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1706,13 +1805,13 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>134.3049847</v>
+        <v>134.30498470000001</v>
       </c>
       <c r="D14">
         <v>12.99058395</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>42</v>
       </c>
@@ -1723,10 +1822,10 @@
         <v>174.3916815</v>
       </c>
       <c r="D15">
-        <v>17.4175566413043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>17.417556641304301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1734,13 +1833,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>81.8159608</v>
+        <v>81.815960799999999</v>
       </c>
       <c r="D16">
-        <v>20.5891353333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>20.589135333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1751,10 +1850,10 @@
         <v>123.6831421</v>
       </c>
       <c r="D17">
-        <v>19.9316415641026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>19.931641564102598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1762,13 +1861,13 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>246.2458649</v>
+        <v>246.24586489999999</v>
       </c>
       <c r="D18">
         <v>15.312483845946</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1776,13 +1875,13 @@
         <v>42</v>
       </c>
       <c r="C19">
-        <v>339.778226</v>
+        <v>339.77822600000002</v>
       </c>
       <c r="D19">
         <v>11.865938</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1790,13 +1889,13 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>270.5921169</v>
+        <v>270.59211690000001</v>
       </c>
       <c r="D20">
-        <v>21.8604292051282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>21.860429205128199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1804,13 +1903,13 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>127.6546236</v>
+        <v>127.65462359999999</v>
       </c>
       <c r="D21">
         <v>14.216953</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1818,13 +1917,13 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>140.7360068</v>
+        <v>140.73600680000001</v>
       </c>
       <c r="D22">
-        <v>15.98536604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>15.985366040000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1835,10 +1934,10 @@
         <v>278.1227556</v>
       </c>
       <c r="D23">
-        <v>21.4463187083333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>21.446318708333301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1846,13 +1945,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>251.8626597</v>
+        <v>251.86265969999999</v>
       </c>
       <c r="D24">
         <v>16.2929104722222</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>33</v>
       </c>
@@ -1860,13 +1959,13 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <v>225.0238977</v>
+        <v>225.02389769999999</v>
       </c>
       <c r="D25">
-        <v>12.8314768684211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>12.831476868421101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>40</v>
       </c>
@@ -1874,13 +1973,13 @@
         <v>42</v>
       </c>
       <c r="C26">
-        <v>152.2019466</v>
+        <v>152.20194660000001</v>
       </c>
       <c r="D26">
-        <v>14.48286447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>14.482864470000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1888,13 +1987,13 @@
         <v>41</v>
       </c>
       <c r="C27">
-        <v>288.1919175</v>
+        <v>288.19191749999999</v>
       </c>
       <c r="D27">
-        <v>21.904749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1908,7 +2007,7 @@
         <v>17.3773925806452</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1916,13 +2015,13 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>315.3047628</v>
+        <v>315.30476279999999</v>
       </c>
       <c r="D29">
         <v>21.7765998070176</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15</v>
       </c>
@@ -1930,13 +2029,13 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>69.16861273000001</v>
+        <v>69.168612730000007</v>
       </c>
       <c r="D30">
         <v>20.506905</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1944,13 +2043,13 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>234.8941148</v>
+        <v>234.89411480000001</v>
       </c>
       <c r="D31">
-        <v>12.1896750606061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>12.189675060606101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1961,10 +2060,10 @@
         <v>47.63018916</v>
       </c>
       <c r="D32">
-        <v>21.665497</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>21.665496999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -1972,13 +2071,13 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>308.4151996</v>
+        <v>308.41519959999999</v>
       </c>
       <c r="D33">
         <v>12.1526458026316</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1986,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>77.96396230000001</v>
+        <v>77.963962300000006</v>
       </c>
       <c r="D34">
-        <v>20.0883884047619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>20.088388404761901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>21</v>
       </c>
@@ -2000,13 +2099,13 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>445.9281382</v>
+        <v>445.92813819999998</v>
       </c>
       <c r="D35">
-        <v>21.7899903864119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>21.789990386411901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>30</v>
       </c>
@@ -2014,13 +2113,13 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>436.2716913</v>
+        <v>436.27169129999999</v>
       </c>
       <c r="D36">
-        <v>12.3187028745353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>12.318702874535299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -2034,7 +2133,7 @@
         <v>14.9245798723404</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21</v>
       </c>
@@ -2042,13 +2141,13 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>297.1508085</v>
+        <v>297.15080849999998</v>
       </c>
       <c r="D38">
-        <v>21.7800056610879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>21.780005661087898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2062,7 +2161,7 @@
         <v>15.67853749</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>45</v>
       </c>
@@ -2070,13 +2169,13 @@
         <v>17</v>
       </c>
       <c r="C40">
-        <v>373.6308274</v>
+        <v>373.63082739999999</v>
       </c>
       <c r="D40">
-        <v>15.0864268098291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>15.086426809829099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2084,13 +2183,13 @@
         <v>18</v>
       </c>
       <c r="C41">
-        <v>281.0870454</v>
+        <v>281.08704540000002</v>
       </c>
       <c r="D41">
         <v>14.0501637582418</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>18</v>
       </c>
@@ -2098,13 +2197,13 @@
         <v>26</v>
       </c>
       <c r="C42">
-        <v>98.81552936999999</v>
+        <v>98.815529369999993</v>
       </c>
       <c r="D42">
-        <v>13.8238967</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>13.823896700000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -2112,13 +2211,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>460.2848327</v>
+        <v>460.28483269999998</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>30</v>
       </c>
@@ -2126,13 +2225,13 @@
         <v>33</v>
       </c>
       <c r="C44">
-        <v>260.5701136</v>
+        <v>260.57011360000001</v>
       </c>
       <c r="D44">
         <v>12.7704402922078</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24</v>
       </c>
@@ -2146,7 +2245,7 @@
         <v>14.5157525434783</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2154,13 +2253,13 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>263.6393465</v>
+        <v>263.63934649999999</v>
       </c>
       <c r="D46">
-        <v>16.8977313564815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>16.897731356481501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>27</v>
       </c>
@@ -2168,13 +2267,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>355.6231614</v>
+        <v>355.62316140000001</v>
       </c>
       <c r="D47">
         <v>15.2399588823529</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -2188,7 +2287,7 @@
         <v>18.1694906666667</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -2196,13 +2295,13 @@
         <v>20</v>
       </c>
       <c r="C49">
-        <v>192.4522229</v>
+        <v>192.45222290000001</v>
       </c>
       <c r="D49">
-        <v>15.60594834</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>15.605948339999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>34</v>
       </c>
@@ -2210,13 +2309,13 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>215.0532376</v>
+        <v>215.05323759999999</v>
       </c>
       <c r="D50">
-        <v>16.9725413030303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>16.972541303030301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2227,10 +2326,10 @@
         <v>223.5714878</v>
       </c>
       <c r="D51">
-        <v>20.2240477972973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>20.224047797297299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6</v>
       </c>
@@ -2238,13 +2337,13 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>352.936821</v>
+        <v>352.93682100000001</v>
       </c>
       <c r="D52">
-        <v>16.4645023261905</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>16.464502326190502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -2258,7 +2357,7 @@
         <v>14.4212122222222</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>37</v>
       </c>
@@ -2272,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
@@ -2280,13 +2379,13 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>410.4549185</v>
+        <v>410.45491850000002</v>
       </c>
       <c r="D55">
-        <v>17.9963493287671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>17.996349328767099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2297,10 +2396,10 @@
         <v>260.1771091</v>
       </c>
       <c r="D56">
-        <v>17.798724012987</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>17.798724012987002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2311,10 +2410,10 @@
         <v>171.4172136</v>
       </c>
       <c r="D57">
-        <v>17.1685395333333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>17.168539533333298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>36</v>
       </c>
@@ -2328,7 +2427,7 @@
         <v>15.0055076153846</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>33</v>
       </c>
@@ -2336,13 +2435,13 @@
         <v>23</v>
       </c>
       <c r="C59">
-        <v>261.600589</v>
+        <v>261.60058900000001</v>
       </c>
       <c r="D59">
-        <v>13.6295322642046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>13.629532264204601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20</v>
       </c>
@@ -2350,13 +2449,13 @@
         <v>16</v>
       </c>
       <c r="C60">
-        <v>409.3111575</v>
+        <v>409.31115749999998</v>
       </c>
       <c r="D60">
         <v>16.9589456666667</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2364,13 +2463,13 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>326.4328417</v>
+        <v>326.43284169999998</v>
       </c>
       <c r="D61">
-        <v>19.0705384539171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>19.070538453917099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>34</v>
       </c>
@@ -2378,13 +2477,13 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>195.7328443</v>
+        <v>195.73284430000001</v>
       </c>
       <c r="D62">
-        <v>20.5490031327434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>20.549003132743401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>44</v>
       </c>
@@ -2395,10 +2494,10 @@
         <v>156.0644819</v>
       </c>
       <c r="D63">
-        <v>21.65496915625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>21.654969156250001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -2406,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>45.6421557</v>
+        <v>45.642155700000004</v>
       </c>
       <c r="D64">
         <v>11.95382575</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -2420,13 +2519,13 @@
         <v>9</v>
       </c>
       <c r="C65">
-        <v>206.5979139</v>
+        <v>206.59791390000001</v>
       </c>
       <c r="D65">
         <v>15.9619290266667</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2434,13 +2533,13 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>456.2676239</v>
+        <v>456.26762389999999</v>
       </c>
       <c r="D66">
-        <v>21.9006801666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>21.900680166666699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>16</v>
       </c>
@@ -2448,13 +2547,13 @@
         <v>21</v>
       </c>
       <c r="C67">
-        <v>145.1826364</v>
+        <v>145.18263640000001</v>
       </c>
       <c r="D67">
         <v>21.2702373170732</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>27</v>
       </c>
@@ -2462,13 +2561,13 @@
         <v>28</v>
       </c>
       <c r="C68">
-        <v>275.6604549</v>
+        <v>275.66045489999999</v>
       </c>
       <c r="D68">
         <v>13.9383545757576</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13</v>
       </c>
@@ -2476,13 +2575,13 @@
         <v>43</v>
       </c>
       <c r="C69">
-        <v>130.3081116</v>
+        <v>130.30811159999999</v>
       </c>
       <c r="D69">
-        <v>19.1548180571429</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>19.154818057142901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>19</v>
       </c>
@@ -2490,13 +2589,13 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>58.95750201</v>
+        <v>58.957502009999999</v>
       </c>
       <c r="D70">
         <v>13.692064</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6</v>
       </c>
@@ -2504,13 +2603,13 @@
         <v>15</v>
       </c>
       <c r="C71">
-        <v>280.7806599</v>
+        <v>280.78065989999999</v>
       </c>
       <c r="D71">
-        <v>19.8217604073034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>19.821760407303401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2518,13 +2617,13 @@
         <v>41</v>
       </c>
       <c r="C72">
-        <v>227.2269304</v>
+        <v>227.22693039999999</v>
       </c>
       <c r="D72">
-        <v>21.904749</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>21.904748999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>22</v>
       </c>
@@ -2532,13 +2631,13 @@
         <v>23</v>
       </c>
       <c r="C73">
-        <v>124.9092209</v>
+        <v>124.90922089999999</v>
       </c>
       <c r="D73">
         <v>10.078873</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>17</v>
       </c>
@@ -2546,26 +2645,33 @@
         <v>28</v>
       </c>
       <c r="C74">
-        <v>285.0795135</v>
+        <v>285.07951350000002</v>
       </c>
       <c r="D74">
         <v>14.0517656748466</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,36 +2690,42 @@
       <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -2624,16 +2736,19 @@
       <c r="F3">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>18.5</v>
@@ -2644,16 +2759,19 @@
       <c r="F4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>18.5</v>
@@ -2664,21 +2782,30 @@
       <c r="F5">
         <v>6</v>
       </c>
+      <c r="G5" s="2">
+        <v>44619</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2707,18 +2834,18 @@
         <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -2736,21 +2863,21 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2">
         <v>44621</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -2768,21 +2895,21 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2">
         <v>44622</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -2800,21 +2927,21 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2">
         <v>44624</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -2826,27 +2953,27 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2">
         <v>44627</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -2864,21 +2991,21 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
         <v>44628</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -2890,59 +3017,59 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="J7" s="2">
         <v>44632</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F8">
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>44633</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2954,27 +3081,27 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H9">
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="J9" s="2">
         <v>44627</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -2986,33 +3113,33 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H10">
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="J10" s="2">
         <v>44627</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>35</v>
@@ -3024,21 +3151,21 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2">
         <v>44635</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>19</v>
@@ -3050,27 +3177,27 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H12">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2">
         <v>44629</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D13">
         <v>19</v>
@@ -3082,27 +3209,27 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H13">
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2">
         <v>44636</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>19</v>
@@ -3120,21 +3247,21 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2">
         <v>44646</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -3152,21 +3279,21 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="J15" s="2">
         <v>44630</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -3184,21 +3311,21 @@
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2">
         <v>44633</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -3216,27 +3343,27 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J17" s="2">
         <v>44644</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>27</v>
@@ -3248,21 +3375,21 @@
         <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="J18" s="2">
         <v>44624</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -3280,27 +3407,27 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J19" s="2">
         <v>44639</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>35</v>
@@ -3312,21 +3439,21 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J20" s="2">
         <v>44639</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -3344,21 +3471,21 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="J21" s="2">
         <v>44637</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -3376,21 +3503,21 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="J22" s="2">
         <v>44644</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -3408,27 +3535,27 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="J23" s="2">
         <v>44628</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F24">
         <v>18</v>
@@ -3440,27 +3567,27 @@
         <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="J24" s="2">
         <v>44640</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>28</v>
@@ -3472,21 +3599,21 @@
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="J25" s="2">
         <v>44636</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -3504,21 +3631,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="J26" s="2">
         <v>44652</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -3536,21 +3663,21 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="J27" s="2">
         <v>44659</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>14</v>
@@ -3568,21 +3695,21 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="J28" s="2">
         <v>44661</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <v>18</v>
@@ -3600,53 +3727,53 @@
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J29" s="2">
         <v>44658</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F30">
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J30" s="2">
         <v>44666</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>18</v>
@@ -3658,27 +3785,27 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H31">
         <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J31" s="2">
         <v>44667</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>18</v>
@@ -3696,21 +3823,21 @@
         <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J32" s="2">
         <v>44667</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -3722,33 +3849,33 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H33">
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J33" s="2">
         <v>44667</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>27</v>
@@ -3760,21 +3887,21 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J34" s="2">
         <v>44657</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -3792,21 +3919,21 @@
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J35" s="2">
         <v>44671</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -3824,21 +3951,21 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J36" s="2">
         <v>44674</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -3850,27 +3977,27 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H37">
         <v>35</v>
       </c>
       <c r="I37" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J37" s="2">
         <v>44673</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -3888,21 +4015,21 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J38" s="2">
         <v>44674</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -3920,21 +4047,21 @@
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J39" s="2">
         <v>44676</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D40">
         <v>14</v>
@@ -3952,21 +4079,21 @@
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J40" s="2">
         <v>44678</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D41">
         <v>14</v>
@@ -3984,21 +4111,21 @@
         <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J41" s="2">
         <v>44678</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>16</v>
@@ -4016,21 +4143,21 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J42" s="2">
         <v>44676</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <v>16</v>
@@ -4048,10 +4175,726 @@
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J43" s="2">
         <v>44681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE5E9CE-F180-CB41-9C4D-6264025EEFDA}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>100</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>100</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="3">
+        <v>-10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
